--- a/biology/Zoologie/Chien_d'utilité/Chien_d'utilité.xlsx
+++ b/biology/Zoologie/Chien_d'utilité/Chien_d'utilité.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F2"/>
+  <dimension ref="A1:H2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Chien_d%27utilit%C3%A9</t>
+          <t>Chien_d'utilité</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,14 +490,16 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Un chien d'utilité appelé aussi chien de travail, est un chien qui est utilisé pour réaliser des tâches, et a été élevé pour cela, pour assister ou aider l'homme. Ce nom est aussi donné à certaines races de chiens qui ont été sélectionnées afin de servir l'être humain. Cette classification en chien d'utilité et de compagnie est systématisée pour la première fois par John Caius dans son De Canibus Britannicis en 1570[1].
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Un chien d'utilité appelé aussi chien de travail, est un chien qui est utilisé pour réaliser des tâches, et a été élevé pour cela, pour assister ou aider l'homme. Ce nom est aussi donné à certaines races de chiens qui ont été sélectionnées afin de servir l'être humain. Cette classification en chien d'utilité et de compagnie est systématisée pour la première fois par John Caius dans son De Canibus Britannicis en 1570.
 On peut ainsi citer :  
 Chien de chasse
 Chien de garde
 Chien de berger
-Chien guide d'aveugle [2]
+Chien guide d'aveugle 
 Chien policier
 Chien truffier
 Chien d'attelage
